--- a/WebContent/static/Exceltemplate/virtualOrdersImport.xlsx
+++ b/WebContent/static/Exceltemplate/virtualOrdersImport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="C7F3" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="14805" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="虚拟订单录入表" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <definedName name="_10次_高级">'规格配置表（勿更改）'!$B$20</definedName>
     <definedName name="_10年卡">'商品配置表（勿更改）'!$I$31</definedName>
     <definedName name="_10年卡_">'规格配置表（勿更改）'!$B$41</definedName>
+    <definedName name="_1103">'商品配置表（勿更改）'!$J$54</definedName>
+    <definedName name="_1106">'商品配置表（勿更改）'!$J$55</definedName>
     <definedName name="_120次">'规格配置表（勿更改）'!$B$22</definedName>
     <definedName name="_12次">'规格配置表（勿更改）'!$B$7</definedName>
     <definedName name="_15次">'规格配置表（勿更改）'!$B$11</definedName>
@@ -40,106 +42,106 @@
     <definedName name="_48次">'规格配置表（勿更改）'!$B$5</definedName>
     <definedName name="_4次">'规格配置表（勿更改）'!$B$2</definedName>
     <definedName name="_527">'商品配置表（勿更改）'!$J$1:$M$1</definedName>
-    <definedName name="_528">'商品配置表（勿更改）'!$J$111:$K$111</definedName>
+    <definedName name="_528">'商品配置表（勿更改）'!$J$174:$K$174</definedName>
     <definedName name="_529">'商品配置表（勿更改）'!$J$2:$M$2</definedName>
     <definedName name="_530">'商品配置表（勿更改）'!$J$3:$M$3</definedName>
     <definedName name="_531">'商品配置表（勿更改）'!$J$4</definedName>
     <definedName name="_532">'商品配置表（勿更改）'!$J$5:$M$5</definedName>
-    <definedName name="_533">'商品配置表（勿更改）'!$J$34:$K$34</definedName>
+    <definedName name="_533">'商品配置表（勿更改）'!$J$58:$K$58</definedName>
     <definedName name="_534">'商品配置表（勿更改）'!$J$6:$M$6</definedName>
-    <definedName name="_535">'商品配置表（勿更改）'!$J$92:$M$92</definedName>
+    <definedName name="_535">'商品配置表（勿更改）'!$J$155:$M$155</definedName>
     <definedName name="_536">'商品配置表（勿更改）'!$J$7:$L$7</definedName>
-    <definedName name="_537">'商品配置表（勿更改）'!$J$35:$K$35</definedName>
-    <definedName name="_538">'商品配置表（勿更改）'!$J$36</definedName>
-    <definedName name="_539">'商品配置表（勿更改）'!$J$37</definedName>
-    <definedName name="_540">'商品配置表（勿更改）'!$J$38:$L$38</definedName>
-    <definedName name="_541">'商品配置表（勿更改）'!$J$39</definedName>
-    <definedName name="_542">'商品配置表（勿更改）'!$J$40</definedName>
-    <definedName name="_543">'商品配置表（勿更改）'!$J$41:$K$41</definedName>
-    <definedName name="_544">'商品配置表（勿更改）'!$J$42</definedName>
-    <definedName name="_545">'商品配置表（勿更改）'!$J$43:$K$43</definedName>
-    <definedName name="_546">'商品配置表（勿更改）'!$J$44:$K$44</definedName>
-    <definedName name="_547">'商品配置表（勿更改）'!$J$45</definedName>
-    <definedName name="_548">'商品配置表（勿更改）'!$J$46:$K$46</definedName>
-    <definedName name="_549">'商品配置表（勿更改）'!$J$47</definedName>
-    <definedName name="_550">'商品配置表（勿更改）'!$J$48:$K$48</definedName>
-    <definedName name="_551">'商品配置表（勿更改）'!$J$49:$K$49</definedName>
+    <definedName name="_537">'商品配置表（勿更改）'!$J$59:$K$59</definedName>
+    <definedName name="_538">'商品配置表（勿更改）'!$J$60</definedName>
+    <definedName name="_539">'商品配置表（勿更改）'!$J$61</definedName>
+    <definedName name="_540">'商品配置表（勿更改）'!$J$62:$L$62</definedName>
+    <definedName name="_541">'商品配置表（勿更改）'!$J$63</definedName>
+    <definedName name="_542">'商品配置表（勿更改）'!$J$64</definedName>
+    <definedName name="_543">'商品配置表（勿更改）'!$J$65:$K$65</definedName>
+    <definedName name="_544">'商品配置表（勿更改）'!$J$66</definedName>
+    <definedName name="_545">'商品配置表（勿更改）'!$J$67:$K$67</definedName>
+    <definedName name="_546">'商品配置表（勿更改）'!$J$68:$K$68</definedName>
+    <definedName name="_547">'商品配置表（勿更改）'!$J$69</definedName>
+    <definedName name="_548">'商品配置表（勿更改）'!$J$70:$K$70</definedName>
+    <definedName name="_549">'商品配置表（勿更改）'!$J$71</definedName>
+    <definedName name="_550">'商品配置表（勿更改）'!$J$72:$K$72</definedName>
+    <definedName name="_551">'商品配置表（勿更改）'!$J$73:$K$73</definedName>
     <definedName name="_552">'商品配置表（勿更改）'!$J$8:$L$8</definedName>
-    <definedName name="_553">'商品配置表（勿更改）'!$J$50:$K$50</definedName>
+    <definedName name="_553">'商品配置表（勿更改）'!$J$74:$K$74</definedName>
     <definedName name="_554">'商品配置表（勿更改）'!$J$9:$M$9</definedName>
     <definedName name="_555">'商品配置表（勿更改）'!$J$10:$L$10</definedName>
-    <definedName name="_556">'商品配置表（勿更改）'!$J$159:$K$159</definedName>
-    <definedName name="_557">'商品配置表（勿更改）'!$J$160:$K$160</definedName>
-    <definedName name="_558">'商品配置表（勿更改）'!$J$51:$L$51</definedName>
-    <definedName name="_559">'商品配置表（勿更改）'!$J$161:$K$161</definedName>
-    <definedName name="_560">'商品配置表（勿更改）'!$J$52:$L$52</definedName>
-    <definedName name="_561">'商品配置表（勿更改）'!$J$53</definedName>
-    <definedName name="_562">'商品配置表（勿更改）'!$J$54:$L$54</definedName>
+    <definedName name="_556">'商品配置表（勿更改）'!$J$222:$K$222</definedName>
+    <definedName name="_557">'商品配置表（勿更改）'!$J$223:$K$223</definedName>
+    <definedName name="_558">'商品配置表（勿更改）'!$J$75:$L$75</definedName>
+    <definedName name="_559">'商品配置表（勿更改）'!$J$224:$K$224</definedName>
+    <definedName name="_560">'商品配置表（勿更改）'!$J$76:$L$76</definedName>
+    <definedName name="_561">'商品配置表（勿更改）'!$J$77</definedName>
+    <definedName name="_562">'商品配置表（勿更改）'!$J$78:$L$78</definedName>
     <definedName name="_563">'商品配置表（勿更改）'!$J$11:$M$11</definedName>
-    <definedName name="_564">'商品配置表（勿更改）'!$J$112:$K$112</definedName>
-    <definedName name="_565">'商品配置表（勿更改）'!$J$77:$M$77</definedName>
-    <definedName name="_566">'商品配置表（勿更改）'!$J$55:$M$55</definedName>
-    <definedName name="_567">'商品配置表（勿更改）'!$J$199:$K$199</definedName>
-    <definedName name="_568">'商品配置表（勿更改）'!$J$56:$M$56</definedName>
+    <definedName name="_564">'商品配置表（勿更改）'!$J$175:$K$175</definedName>
+    <definedName name="_565">'商品配置表（勿更改）'!$J$140:$M$140</definedName>
+    <definedName name="_566">'商品配置表（勿更改）'!$J$79:$M$79</definedName>
+    <definedName name="_567">'商品配置表（勿更改）'!$J$262:$K$262</definedName>
+    <definedName name="_568">'商品配置表（勿更改）'!$J$80:$M$80</definedName>
     <definedName name="_569">'商品配置表（勿更改）'!$J$12:$M$12</definedName>
-    <definedName name="_570">'商品配置表（勿更改）'!$J$78:$M$78</definedName>
-    <definedName name="_571">'商品配置表（勿更改）'!$J$57:$K$57</definedName>
-    <definedName name="_572">'商品配置表（勿更改）'!$J$177:$M$177</definedName>
-    <definedName name="_573">'商品配置表（勿更改）'!$J$58</definedName>
-    <definedName name="_574">'商品配置表（勿更改）'!$J$59:$K$59</definedName>
-    <definedName name="_575">'商品配置表（勿更改）'!$J$192:$M$192</definedName>
-    <definedName name="_576">'商品配置表（勿更改）'!$J$185:$M$185</definedName>
-    <definedName name="_577">'商品配置表（勿更改）'!$J$178:$K$178</definedName>
-    <definedName name="_578">'商品配置表（勿更改）'!$J$151:$L$151</definedName>
-    <definedName name="_579">'商品配置表（勿更改）'!$J$60:$K$60</definedName>
-    <definedName name="_580">'商品配置表（勿更改）'!$J$61:$K$61</definedName>
-    <definedName name="_598">'商品配置表（勿更改）'!$J$142:$M$142</definedName>
-    <definedName name="_599">'商品配置表（勿更改）'!$J$143:$M$143</definedName>
+    <definedName name="_570">'商品配置表（勿更改）'!$J$141:$M$141</definedName>
+    <definedName name="_571">'商品配置表（勿更改）'!$J$81:$K$81</definedName>
+    <definedName name="_572">'商品配置表（勿更改）'!$J$240:$M$240</definedName>
+    <definedName name="_573">'商品配置表（勿更改）'!$J$82</definedName>
+    <definedName name="_574">'商品配置表（勿更改）'!$J$83:$K$83</definedName>
+    <definedName name="_575">'商品配置表（勿更改）'!$J$255:$M$255</definedName>
+    <definedName name="_576">'商品配置表（勿更改）'!$J$248:$M$248</definedName>
+    <definedName name="_577">'商品配置表（勿更改）'!$J$241:$K$241</definedName>
+    <definedName name="_578">'商品配置表（勿更改）'!$J$214:$L$214</definedName>
+    <definedName name="_579">'商品配置表（勿更改）'!$J$84:$K$84</definedName>
+    <definedName name="_580">'商品配置表（勿更改）'!$J$85:$K$85</definedName>
+    <definedName name="_598">'商品配置表（勿更改）'!$J$205:$K$205</definedName>
+    <definedName name="_599">'商品配置表（勿更改）'!$J$206:$M$206</definedName>
     <definedName name="_5次">'规格配置表（勿更改）'!$B$6</definedName>
     <definedName name="_5年卡">'商品配置表（勿更改）'!$I$30</definedName>
     <definedName name="_5年卡_">'规格配置表（勿更改）'!$B$40</definedName>
-    <definedName name="_602">'商品配置表（勿更改）'!$J$113:$K$113</definedName>
-    <definedName name="_603">'商品配置表（勿更改）'!$J$114:$K$114</definedName>
-    <definedName name="_604">'商品配置表（勿更改）'!$J$115:$K$115</definedName>
-    <definedName name="_605">'商品配置表（勿更改）'!$J$116:$K$116</definedName>
-    <definedName name="_606">'商品配置表（勿更改）'!$J$117:$K$117</definedName>
-    <definedName name="_607">'商品配置表（勿更改）'!$J$118:$K$118</definedName>
-    <definedName name="_608">'商品配置表（勿更改）'!$J$119:$K$119</definedName>
-    <definedName name="_609">'商品配置表（勿更改）'!$J$120:$K$120</definedName>
-    <definedName name="_610">'商品配置表（勿更改）'!$J$121:$K$121</definedName>
-    <definedName name="_611">'商品配置表（勿更改）'!$J$243</definedName>
-    <definedName name="_612">'商品配置表（勿更改）'!$J$235</definedName>
-    <definedName name="_613">'商品配置表（勿更改）'!$J$122:$K$122</definedName>
-    <definedName name="_614">'商品配置表（勿更改）'!$J$170:$M$170</definedName>
-    <definedName name="_615">'商品配置表（勿更改）'!$J$100:$K$100</definedName>
-    <definedName name="_616">'商品配置表（勿更改）'!$J$131</definedName>
-    <definedName name="_617">'商品配置表（勿更改）'!$J$132</definedName>
-    <definedName name="_618">'商品配置表（勿更改）'!$J$162</definedName>
-    <definedName name="_619">'商品配置表（勿更改）'!$J$163</definedName>
-    <definedName name="_620">'商品配置表（勿更改）'!$J$62:$K$62</definedName>
-    <definedName name="_621">'商品配置表（勿更改）'!$J$63</definedName>
+    <definedName name="_602">'商品配置表（勿更改）'!$J$176:$K$176</definedName>
+    <definedName name="_603">'商品配置表（勿更改）'!$J$177:$K$177</definedName>
+    <definedName name="_604">'商品配置表（勿更改）'!$J$178:$K$178</definedName>
+    <definedName name="_605">'商品配置表（勿更改）'!$J$179:$K$179</definedName>
+    <definedName name="_606">'商品配置表（勿更改）'!$J$180:$K$180</definedName>
+    <definedName name="_607">'商品配置表（勿更改）'!$J$181:$K$181</definedName>
+    <definedName name="_608">'商品配置表（勿更改）'!$J$182:$K$182</definedName>
+    <definedName name="_609">'商品配置表（勿更改）'!$J$183:$K$183</definedName>
+    <definedName name="_610">'商品配置表（勿更改）'!$J$184:$K$184</definedName>
+    <definedName name="_611">'商品配置表（勿更改）'!$J$306</definedName>
+    <definedName name="_612">'商品配置表（勿更改）'!$J$298</definedName>
+    <definedName name="_613">'商品配置表（勿更改）'!$J$185:$K$185</definedName>
+    <definedName name="_614">'商品配置表（勿更改）'!$J$233:$M$233</definedName>
+    <definedName name="_615">'商品配置表（勿更改）'!$J$163:$K$163</definedName>
+    <definedName name="_616">'商品配置表（勿更改）'!$J$194</definedName>
+    <definedName name="_617">'商品配置表（勿更改）'!$J$195</definedName>
+    <definedName name="_618">'商品配置表（勿更改）'!$J$225</definedName>
+    <definedName name="_619">'商品配置表（勿更改）'!$J$226</definedName>
+    <definedName name="_620">'商品配置表（勿更改）'!$J$86:$K$86</definedName>
+    <definedName name="_621">'商品配置表（勿更改）'!$J$87</definedName>
     <definedName name="_623">'商品配置表（勿更改）'!$J$13:$K$13</definedName>
-    <definedName name="_624">'商品配置表（勿更改）'!$J$211</definedName>
-    <definedName name="_625">'商品配置表（勿更改）'!$J$14:$K$14</definedName>
-    <definedName name="_626">'商品配置表（勿更改）'!$J$219</definedName>
-    <definedName name="_627">'商品配置表（勿更改）'!$J$226</definedName>
-    <definedName name="_629">'商品配置表（勿更改）'!$J$273</definedName>
-    <definedName name="_630">'商品配置表（勿更改）'!$J$272:$K$272</definedName>
-    <definedName name="_631">'商品配置表（勿更改）'!$J$271:$L$271</definedName>
-    <definedName name="_632">'商品配置表（勿更改）'!$J$270</definedName>
-    <definedName name="_633">'商品配置表（勿更改）'!$J$269:$K$269</definedName>
-    <definedName name="_634">'商品配置表（勿更改）'!$J$268</definedName>
-    <definedName name="_635">'商品配置表（勿更改）'!$J$258:$K$258</definedName>
-    <definedName name="_636">'商品配置表（勿更改）'!$J$257:$K$257</definedName>
-    <definedName name="_638">'商品配置表（勿更改）'!$J$71:$K$71</definedName>
-    <definedName name="_639">'商品配置表（勿更改）'!$J$70:$K$70</definedName>
-    <definedName name="_640">'商品配置表（勿更改）'!$J$259:$K$259</definedName>
-    <definedName name="_641">'商品配置表（勿更改）'!$J$69:$K$69</definedName>
-    <definedName name="_642">'商品配置表（勿更改）'!$J$68:$K$68</definedName>
-    <definedName name="_643">'商品配置表（勿更改）'!$J$67:$K$67</definedName>
-    <definedName name="_644">'商品配置表（勿更改）'!$J$66:$K$66</definedName>
-    <definedName name="_645">'商品配置表（勿更改）'!$J$65:$K$65</definedName>
-    <definedName name="_646">'商品配置表（勿更改）'!$J$64:$K$64</definedName>
+    <definedName name="_624">'商品配置表（勿更改）'!$J$274</definedName>
+    <definedName name="_625">'商品配置表（勿更改）'!$J$14:$M$14</definedName>
+    <definedName name="_626">'商品配置表（勿更改）'!$J$282</definedName>
+    <definedName name="_627">'商品配置表（勿更改）'!$J$289</definedName>
+    <definedName name="_629">'商品配置表（勿更改）'!$J$336</definedName>
+    <definedName name="_630">'商品配置表（勿更改）'!$J$335:$K$335</definedName>
+    <definedName name="_631">'商品配置表（勿更改）'!$J$334:$L$334</definedName>
+    <definedName name="_632">'商品配置表（勿更改）'!$J$333</definedName>
+    <definedName name="_633">'商品配置表（勿更改）'!$J$332:$K$332</definedName>
+    <definedName name="_634">'商品配置表（勿更改）'!$J$331</definedName>
+    <definedName name="_635">'商品配置表（勿更改）'!$J$321:$K$321</definedName>
+    <definedName name="_636">'商品配置表（勿更改）'!$J$320:$K$320</definedName>
+    <definedName name="_638">'商品配置表（勿更改）'!$J$95:$K$95</definedName>
+    <definedName name="_639">'商品配置表（勿更改）'!$J$94:$K$94</definedName>
+    <definedName name="_640">'商品配置表（勿更改）'!$J$322:$K$322</definedName>
+    <definedName name="_641">'商品配置表（勿更改）'!$J$93:$K$93</definedName>
+    <definedName name="_642">'商品配置表（勿更改）'!$J$92:$K$92</definedName>
+    <definedName name="_643">'商品配置表（勿更改）'!$J$91:$K$91</definedName>
+    <definedName name="_644">'商品配置表（勿更改）'!$J$90:$K$90</definedName>
+    <definedName name="_645">'商品配置表（勿更改）'!$J$89:$K$89</definedName>
+    <definedName name="_646">'商品配置表（勿更改）'!$J$88:$K$88</definedName>
     <definedName name="_649">'商品配置表（勿更改）'!$J$15:$L$15</definedName>
     <definedName name="_650">'商品配置表（勿更改）'!$J$16</definedName>
     <definedName name="_651">'商品配置表（勿更改）'!$J$17</definedName>
@@ -157,11 +159,76 @@
     <definedName name="_663">'商品配置表（勿更改）'!$J$29</definedName>
     <definedName name="_664">'商品配置表（勿更改）'!$J$30</definedName>
     <definedName name="_665">'商品配置表（勿更改）'!$J$31</definedName>
-    <definedName name="_666">'商品配置表（勿更改）'!$J$32</definedName>
-    <definedName name="_668">'商品配置表（勿更改）'!$J$167:$K$167</definedName>
-    <definedName name="_669">'商品配置表（勿更改）'!$J$166:$K$166</definedName>
-    <definedName name="_670">'商品配置表（勿更改）'!$J$165:$K$165</definedName>
-    <definedName name="_671">'商品配置表（勿更改）'!$J$164:$K$164</definedName>
+    <definedName name="_666">'商品配置表（勿更改）'!$J$56</definedName>
+    <definedName name="_668">'商品配置表（勿更改）'!$J$230:$K$230</definedName>
+    <definedName name="_669">'商品配置表（勿更改）'!$J$229:$K$229</definedName>
+    <definedName name="_670">'商品配置表（勿更改）'!$J$228:$K$228</definedName>
+    <definedName name="_671">'商品配置表（勿更改）'!$J$227:$K$227</definedName>
+    <definedName name="_681">'商品配置表（勿更改）'!$J$29:$L$29</definedName>
+    <definedName name="_682">'商品配置表（勿更改）'!$J$30</definedName>
+    <definedName name="_683">'商品配置表（勿更改）'!$J$31</definedName>
+    <definedName name="_684">'商品配置表（勿更改）'!$J$32</definedName>
+    <definedName name="_685">'商品配置表（勿更改）'!$J$33:$K$33</definedName>
+    <definedName name="_686">'商品配置表（勿更改）'!$J$81:$K$81</definedName>
+    <definedName name="_689">'商品配置表（勿更改）'!$J$34:$K$34</definedName>
+    <definedName name="_690">'商品配置表（勿更改）'!$J$35:$L$35</definedName>
+    <definedName name="_691">'商品配置表（勿更改）'!$J$156:$K$156</definedName>
+    <definedName name="_692">'商品配置表（勿更改）'!$J$96:$M$96</definedName>
+    <definedName name="_693">'商品配置表（勿更改）'!$J$97</definedName>
+    <definedName name="_694">'商品配置表（勿更改）'!$J$98</definedName>
+    <definedName name="_695">'商品配置表（勿更改）'!$J$99</definedName>
+    <definedName name="_696">'商品配置表（勿更改）'!$J$100</definedName>
+    <definedName name="_697">'商品配置表（勿更改）'!$J$101:$M$101</definedName>
+    <definedName name="_698">'商品配置表（勿更改）'!$J$102</definedName>
+    <definedName name="_699">'商品配置表（勿更改）'!$J$103:$K$103</definedName>
+    <definedName name="_700">'商品配置表（勿更改）'!$J$104:$L$104</definedName>
+    <definedName name="_702">'商品配置表（勿更改）'!$J$36:$M$36</definedName>
+    <definedName name="_703">'商品配置表（勿更改）'!$J$37:$M$37</definedName>
+    <definedName name="_704">'商品配置表（勿更改）'!$J$38:$M$38</definedName>
+    <definedName name="_705">'商品配置表（勿更改）'!$J$39:$M$39</definedName>
+    <definedName name="_706">'商品配置表（勿更改）'!$J$40:$K$40</definedName>
+    <definedName name="_707">'商品配置表（勿更改）'!$J$41:$M$41</definedName>
+    <definedName name="_708">'商品配置表（勿更改）'!$J$42:$M$42</definedName>
+    <definedName name="_709">'商品配置表（勿更改）'!$J$43:$M$43</definedName>
+    <definedName name="_710">'商品配置表（勿更改）'!$J$44:$M$44</definedName>
+    <definedName name="_711">'商品配置表（勿更改）'!$J$45:$M$45</definedName>
+    <definedName name="_712">'商品配置表（勿更改）'!$J$46</definedName>
+    <definedName name="_713">'商品配置表（勿更改）'!$J$47:$M$47</definedName>
+    <definedName name="_714">'商品配置表（勿更改）'!$J$48:$M$48</definedName>
+    <definedName name="_715">'商品配置表（勿更改）'!$J$49:$M$49</definedName>
+    <definedName name="_716">'商品配置表（勿更改）'!$J$50:$M$50</definedName>
+    <definedName name="_717">'商品配置表（勿更改）'!$J$51:$M$51</definedName>
+    <definedName name="_718">'商品配置表（勿更改）'!$J$52:$M$52</definedName>
+    <definedName name="_719">'商品配置表（勿更改）'!$J$53:$M$53</definedName>
+    <definedName name="_720">'商品配置表（勿更改）'!$J$105:$K$105</definedName>
+    <definedName name="_721">'商品配置表（勿更改）'!$J$106:$M$106</definedName>
+    <definedName name="_722">'商品配置表（勿更改）'!$J$107:$M$107</definedName>
+    <definedName name="_723">'商品配置表（勿更改）'!$J$108:$M$108</definedName>
+    <definedName name="_724">'商品配置表（勿更改）'!$J$109:$M$109</definedName>
+    <definedName name="_725">'商品配置表（勿更改）'!$J$110:$M$110</definedName>
+    <definedName name="_726">'商品配置表（勿更改）'!$J$111:$M$111</definedName>
+    <definedName name="_727">'商品配置表（勿更改）'!$J$112:$M$112</definedName>
+    <definedName name="_728">'商品配置表（勿更改）'!$J$113:$M$113</definedName>
+    <definedName name="_729">'商品配置表（勿更改）'!$J$114:$M$114</definedName>
+    <definedName name="_730">'商品配置表（勿更改）'!$J$115:$M$115</definedName>
+    <definedName name="_731">'商品配置表（勿更改）'!$J$116:$M$116</definedName>
+    <definedName name="_732">'商品配置表（勿更改）'!$J$117:$M$117</definedName>
+    <definedName name="_733">'商品配置表（勿更改）'!$J$118:$M$118</definedName>
+    <definedName name="_734">'商品配置表（勿更改）'!$J$119:$M$119</definedName>
+    <definedName name="_735">'商品配置表（勿更改）'!$J$120:$M$120</definedName>
+    <definedName name="_736">'商品配置表（勿更改）'!$J$121:$M$121</definedName>
+    <definedName name="_737">'商品配置表（勿更改）'!$J$122:$M$122</definedName>
+    <definedName name="_738">'商品配置表（勿更改）'!$J$123:$M$123</definedName>
+    <definedName name="_739">'商品配置表（勿更改）'!$J$124:$M$124</definedName>
+    <definedName name="_740">'商品配置表（勿更改）'!$J$125</definedName>
+    <definedName name="_741">'商品配置表（勿更改）'!$J$126</definedName>
+    <definedName name="_742">'商品配置表（勿更改）'!$J$127:$M$127</definedName>
+    <definedName name="_743">'商品配置表（勿更改）'!$J$128:$M$128</definedName>
+    <definedName name="_744">'商品配置表（勿更改）'!$J$129:$M$129</definedName>
+    <definedName name="_745">'商品配置表（勿更改）'!$J$130:$M$130</definedName>
+    <definedName name="_746">'商品配置表（勿更改）'!$J$157</definedName>
+    <definedName name="_748">'商品配置表（勿更改）'!$J$131:$K$131</definedName>
+    <definedName name="_754">'商品配置表（勿更改）'!$J$207:$K$207</definedName>
     <definedName name="_7次">'规格配置表（勿更改）'!$B$14</definedName>
     <definedName name="_8片">'规格配置表（勿更改）'!$B$16</definedName>
     <definedName name="_A卡服务">'规格配置表（勿更改）'!$B$24</definedName>
@@ -174,157 +241,224 @@
     <definedName name="_高级_一年内免补">'规格配置表（勿更改）'!$B$37</definedName>
     <definedName name="_双眼线">'规格配置表（勿更改）'!$B$32</definedName>
     <definedName name="_丝雾眉">'规格配置表（勿更改）'!$B$33</definedName>
+    <definedName name="_体验价">'规格配置表（勿更改）'!$B$42</definedName>
     <definedName name="_一年">'规格配置表（勿更改）'!$B$17</definedName>
     <definedName name="_一年内免补">'规格配置表（勿更改）'!$B$36</definedName>
-    <definedName name="AQP透析氧疗仪">'商品配置表（勿更改）'!$H$100</definedName>
-    <definedName name="AQP透析氧疗仪_">'商品配置表（勿更改）'!$I$100</definedName>
-    <definedName name="A卡">'商品配置表（勿更改）'!$H$211</definedName>
-    <definedName name="B卡">'商品配置表（勿更改）'!$H$219</definedName>
-    <definedName name="C卡">'商品配置表（勿更改）'!$H$226</definedName>
-    <definedName name="E光脱毛_比基尼">'商品配置表（勿更改）'!$I$111</definedName>
-    <definedName name="E光脱毛_鬓角">'商品配置表（勿更改）'!$I$120</definedName>
-    <definedName name="E光脱毛_唇毛">'商品配置表（勿更改）'!$I$113</definedName>
-    <definedName name="E光脱毛_大腿毛">'商品配置表（勿更改）'!$I$114</definedName>
-    <definedName name="E光脱毛_胳膊">'商品配置表（勿更改）'!$I$115</definedName>
-    <definedName name="E光脱毛_后背毛">'商品配置表（勿更改）'!$I$122</definedName>
-    <definedName name="E光脱毛_胡须">'商品配置表（勿更改）'!$I$116</definedName>
-    <definedName name="E光脱毛_前发际">'商品配置表（勿更改）'!$I$117</definedName>
-    <definedName name="E光脱毛_小腿">'商品配置表（勿更改）'!$I$118</definedName>
-    <definedName name="E光脱毛_胸毛">'商品配置表（勿更改）'!$I$121</definedName>
-    <definedName name="E光脱毛_腋毛">'商品配置表（勿更改）'!$I$119</definedName>
-    <definedName name="E光系列">'商品配置表（勿更改）'!$H$111:$H$122</definedName>
+    <definedName name="AQP透析氧疗仪">'商品配置表（勿更改）'!$H$163</definedName>
+    <definedName name="AQP透析氧疗仪_">'商品配置表（勿更改）'!$I$163</definedName>
+    <definedName name="A卡">'商品配置表（勿更改）'!$H$274</definedName>
+    <definedName name="B卡">'商品配置表（勿更改）'!$H$282</definedName>
+    <definedName name="C卡">'商品配置表（勿更改）'!$H$289</definedName>
+    <definedName name="E光脱毛_比基尼">'商品配置表（勿更改）'!$I$174</definedName>
+    <definedName name="E光脱毛_鬓角">'商品配置表（勿更改）'!$I$183</definedName>
+    <definedName name="E光脱毛_唇毛">'商品配置表（勿更改）'!$I$176</definedName>
+    <definedName name="E光脱毛_大腿毛">'商品配置表（勿更改）'!$I$177</definedName>
+    <definedName name="E光脱毛_胳膊">'商品配置表（勿更改）'!$I$178</definedName>
+    <definedName name="E光脱毛_后背毛">'商品配置表（勿更改）'!$I$185</definedName>
+    <definedName name="E光脱毛_胡须">'商品配置表（勿更改）'!$I$179</definedName>
+    <definedName name="E光脱毛_前发际">'商品配置表（勿更改）'!$I$180</definedName>
+    <definedName name="E光脱毛_小腿">'商品配置表（勿更改）'!$I$181</definedName>
+    <definedName name="E光脱毛_胸毛">'商品配置表（勿更改）'!$I$184</definedName>
+    <definedName name="E光脱毛_腋毛">'商品配置表（勿更改）'!$I$182</definedName>
+    <definedName name="E光系列">'商品配置表（勿更改）'!$H$174:$H$185</definedName>
+    <definedName name="艾灸一生">'商品配置表（勿更改）'!$I$128</definedName>
+    <definedName name="奥玛精品脸">'商品配置表（勿更改）'!$I$35</definedName>
+    <definedName name="奥玛精致护理_半年">'商品配置表（勿更改）'!$I$55</definedName>
+    <definedName name="奥玛精致护理_年">'商品配置表（勿更改）'!$I$54</definedName>
     <definedName name="奥氏海藻水润生机套">'商品配置表（勿更改）'!$I$2</definedName>
-    <definedName name="冰电波仪器">'商品配置表（勿更改）'!$H$257:$H$259</definedName>
+    <definedName name="背部保健">'商品配置表（勿更改）'!$I$120</definedName>
+    <definedName name="冰点嫩肤">'商品配置表（勿更改）'!$I$38</definedName>
+    <definedName name="冰电波仪器">'商品配置表（勿更改）'!$H$320:$H$322</definedName>
     <definedName name="冰雕">'商品配置表（勿更改）'!$I$13</definedName>
+    <definedName name="冰雕塑形">'商品配置表（勿更改）'!$I$39</definedName>
+    <definedName name="冰疗面部">'商品配置表（勿更改）'!$I$33</definedName>
+    <definedName name="冰疗眼部">'商品配置表（勿更改）'!$I$157</definedName>
     <definedName name="部位">'商品配置表（勿更改）'!$B$1:$B$4</definedName>
-    <definedName name="藏通调养生套">'商品配置表（勿更改）'!$I$66</definedName>
-    <definedName name="畅清理养生套">'商品配置表（勿更改）'!$I$69</definedName>
+    <definedName name="藏通调养生套">'商品配置表（勿更改）'!$I$90</definedName>
+    <definedName name="畅清理养生套">'商品配置表（勿更改）'!$I$93</definedName>
     <definedName name="纯手工美学雕眉">'商品配置表（勿更改）'!$I$15</definedName>
-    <definedName name="点突起肉痣">'商品配置表（勿更改）'!$I$272</definedName>
-    <definedName name="点小肉丁">'商品配置表（勿更改）'!$I$273</definedName>
-    <definedName name="点痣">'商品配置表（勿更改）'!$I$271</definedName>
-    <definedName name="光祛斑">'商品配置表（勿更改）'!$H$131:$H$132</definedName>
-    <definedName name="光祛斑_点老年斑">'商品配置表（勿更改）'!$I$132</definedName>
-    <definedName name="光祛斑_点雀斑">'商品配置表（勿更改）'!$I$131</definedName>
-    <definedName name="黑钻">'商品配置表（勿更改）'!$H$142:$H$143</definedName>
-    <definedName name="黑钻美肤娃娃_颈部">'商品配置表（勿更改）'!$I$143</definedName>
-    <definedName name="黑钻美肤娃娃_面部">'商品配置表（勿更改）'!$I$142</definedName>
+    <definedName name="点突起肉痣">'商品配置表（勿更改）'!$I$335</definedName>
+    <definedName name="点小肉丁">'商品配置表（勿更改）'!$I$336</definedName>
+    <definedName name="点痣">'商品配置表（勿更改）'!$I$334</definedName>
+    <definedName name="电罐吸胸仪">'商品配置表（勿更改）'!$I$105</definedName>
+    <definedName name="顶级黑钻美肤娃娃_面部">'商品配置表（勿更改）'!$I$207</definedName>
+    <definedName name="对对经络">'商品配置表（勿更改）'!$I$104</definedName>
+    <definedName name="扶阳仪">'商品配置表（勿更改）'!$I$126</definedName>
+    <definedName name="高级黑钻美肤娃娃_面部">'商品配置表（勿更改）'!$I$205</definedName>
+    <definedName name="罐灸">'商品配置表（勿更改）'!$I$127</definedName>
+    <definedName name="光祛斑">'商品配置表（勿更改）'!$H$194:$H$195</definedName>
+    <definedName name="光祛斑_点老年斑">'商品配置表（勿更改）'!$I$195</definedName>
+    <definedName name="光祛斑_点雀斑">'商品配置表（勿更改）'!$I$194</definedName>
+    <definedName name="海藻膜">'商品配置表（勿更改）'!$I$45</definedName>
+    <definedName name="黑钻">'商品配置表（勿更改）'!$H$205:$H$207</definedName>
+    <definedName name="黑钻美肤娃娃_颈部">'商品配置表（勿更改）'!$I$206</definedName>
     <definedName name="红球藻肌龄逆转生机套">'商品配置表（勿更改）'!$I$6</definedName>
-    <definedName name="季卡">'商品配置表（勿更改）'!$H$235</definedName>
-    <definedName name="季卡_面部">'商品配置表（勿更改）'!$I$235</definedName>
-    <definedName name="肩颈舒活轻松套">'商品配置表（勿更改）'!$I$41</definedName>
-    <definedName name="脚灸系列">'商品配置表（勿更改）'!$I$161</definedName>
-    <definedName name="紧实美韵滋养套_3件套">'商品配置表（勿更改）'!$I$43</definedName>
-    <definedName name="经络养生仪">'商品配置表（勿更改）'!$H$151</definedName>
-    <definedName name="经络养生仪_">'商品配置表（勿更改）'!$I$151</definedName>
-    <definedName name="颈部淋巴引流">'商品配置表（勿更改）'!$I$52</definedName>
-    <definedName name="净舒调理养护套">'商品配置表（勿更改）'!$I$40</definedName>
-    <definedName name="灸类">'商品配置表（勿更改）'!$H$159:$H$167</definedName>
+    <definedName name="皇家古法_带脉塑形_产品">'商品配置表（勿更改）'!$I$111</definedName>
+    <definedName name="皇家古法_清肺养颜">'商品配置表（勿更改）'!$I$114</definedName>
+    <definedName name="皇家古法_乳腺疾患">'商品配置表（勿更改）'!$I$113</definedName>
+    <definedName name="皇家古法_舒肝养血">'商品配置表（勿更改）'!$I$112</definedName>
+    <definedName name="皇家古法_头疗">'商品配置表（勿更改）'!$I$116</definedName>
+    <definedName name="皇家古法_原生泰雅_臀疗">'商品配置表（勿更改）'!$I$115</definedName>
+    <definedName name="皇家古法_子午流注健康_路通">'商品配置表（勿更改）'!$I$110</definedName>
+    <definedName name="皇家古法_子午流注健康_阙通">'商品配置表（勿更改）'!$I$109</definedName>
+    <definedName name="皇眼">'商品配置表（勿更改）'!$I$34</definedName>
+    <definedName name="活细胞抗衰老">'商品配置表（勿更改）'!$I$42</definedName>
+    <definedName name="基础眼护">'商品配置表（勿更改）'!$I$156</definedName>
+    <definedName name="季卡">'商品配置表（勿更改）'!$H$298</definedName>
+    <definedName name="季卡_面部">'商品配置表（勿更改）'!$I$298</definedName>
+    <definedName name="肩颈舒活轻松套">'商品配置表（勿更改）'!$I$65</definedName>
+    <definedName name="健胃整肠">'商品配置表（勿更改）'!$I$121</definedName>
+    <definedName name="脚灸系列">'商品配置表（勿更改）'!$I$224</definedName>
+    <definedName name="紧实美韵滋养套_3件套">'商品配置表（勿更改）'!$I$67</definedName>
+    <definedName name="经络养生仪">'商品配置表（勿更改）'!$H$214</definedName>
+    <definedName name="经络养生仪_">'商品配置表（勿更改）'!$I$214</definedName>
+    <definedName name="颈部淋巴引流">'商品配置表（勿更改）'!$I$76</definedName>
+    <definedName name="净舒调理养护套">'商品配置表（勿更改）'!$I$64</definedName>
+    <definedName name="灸类">'商品配置表（勿更改）'!$H$222:$H$230</definedName>
     <definedName name="卡帕藻雪肤生机套">'商品配置表（勿更改）'!$I$5</definedName>
-    <definedName name="坤合通养生套">'商品配置表（勿更改）'!$I$65</definedName>
+    <definedName name="坤合通养生套">'商品配置表（勿更改）'!$I$89</definedName>
+    <definedName name="蜡疗">'商品配置表（勿更改）'!$I$129</definedName>
+    <definedName name="冷喷镇痛">'商品配置表（勿更改）'!$I$50</definedName>
+    <definedName name="冷热膜">'商品配置表（勿更改）'!$I$53</definedName>
     <definedName name="脸部疏筋">'商品配置表（勿更改）'!$I$12</definedName>
+    <definedName name="淋巴排毒">'商品配置表（勿更改）'!$I$118</definedName>
+    <definedName name="卵巢保养">'商品配置表（勿更改）'!$I$122</definedName>
     <definedName name="绿藻生机能量套">'商品配置表（勿更改）'!$I$1</definedName>
+    <definedName name="脉冲">'商品配置表（勿更改）'!$I$107</definedName>
     <definedName name="缦之羽6度空感羽丝眉">'商品配置表（勿更改）'!$I$25</definedName>
-    <definedName name="缦之羽6度亮瞳魅影术">'商品配置表（勿更改）'!$I$32</definedName>
+    <definedName name="缦之羽6度亮瞳魅影术">'商品配置表（勿更改）'!$I$56</definedName>
     <definedName name="缦之羽高端纤丝眉">'商品配置表（勿更改）'!$I$26</definedName>
     <definedName name="缦之羽水晶裸妆唇">'商品配置表（勿更改）'!$I$17</definedName>
     <definedName name="缦之羽水漾蜜桃唇">'商品配置表（勿更改）'!$I$16</definedName>
+    <definedName name="玫瑰谷">'商品配置表（勿更改）'!$I$29</definedName>
     <definedName name="美睫">'商品配置表（勿更改）'!$I$24</definedName>
     <definedName name="美睫术">'商品配置表（勿更改）'!$I$23</definedName>
-    <definedName name="美颈无痕紧致护理">'商品配置表（勿更改）'!$I$51</definedName>
+    <definedName name="美颈无痕紧致护理">'商品配置表（勿更改）'!$I$75</definedName>
     <definedName name="美瞳亮睫术">'商品配置表（勿更改）'!$I$22</definedName>
-    <definedName name="面部">'商品配置表（勿更改）'!$H$1:$H$32</definedName>
-    <definedName name="面部E光嫩肤">'商品配置表（勿更改）'!$I$112</definedName>
+    <definedName name="面部">'商品配置表（勿更改）'!$H$1:$H$56</definedName>
+    <definedName name="面部E光嫩肤">'商品配置表（勿更改）'!$I$175</definedName>
     <definedName name="面部刮痧">'商品配置表（勿更改）'!$I$11</definedName>
-    <definedName name="摩奇">'商品配置表（勿更改）'!$H$170</definedName>
-    <definedName name="摩奇_">'商品配置表（勿更改）'!$I$170</definedName>
-    <definedName name="魔方灸系列">'商品配置表（勿更改）'!$I$163</definedName>
-    <definedName name="女葆草本健康套">'商品配置表（勿更改）'!$I$61</definedName>
-    <definedName name="女葆草本健康调理黄金套">'商品配置表（勿更改）'!$I$59</definedName>
-    <definedName name="女葆草本调理粉袋_胸贴膜">'商品配置表（勿更改）'!$I$57</definedName>
-    <definedName name="女葆草本调理套">'商品配置表（勿更改）'!$I$58</definedName>
-    <definedName name="女葆草本营养套">'商品配置表（勿更改）'!$I$60</definedName>
-    <definedName name="女性腹部保养套">'商品配置表（勿更改）'!$I$44</definedName>
-    <definedName name="气血通">'商品配置表（勿更改）'!$H$177:$H$178</definedName>
-    <definedName name="气血通_">'商品配置表（勿更改）'!$I$177</definedName>
-    <definedName name="气血通本草精华套装">'商品配置表（勿更改）'!$I$178</definedName>
-    <definedName name="铅汞排毒">'商品配置表（勿更改）'!$I$14</definedName>
-    <definedName name="情盎然养生套">'商品配置表（勿更改）'!$I$71</definedName>
-    <definedName name="全能王OPT仪器">'商品配置表（勿更改）'!$H$268:$H$273</definedName>
-    <definedName name="全身臻养护理套">'商品配置表（勿更改）'!$I$36</definedName>
-    <definedName name="热疗_草药球">'商品配置表（勿更改）'!$H$185</definedName>
-    <definedName name="热疗_草药球_">'商品配置表（勿更改）'!$I$185</definedName>
+    <definedName name="面部基础护理半年卡冰清_深层24次">'商品配置表（勿更改）'!$I$31</definedName>
+    <definedName name="面部基础护理季卡12次冰清_深层">'商品配置表（勿更改）'!$I$32</definedName>
+    <definedName name="面部基础护理年卡冰清48次">'商品配置表（勿更改）'!$I$30</definedName>
+    <definedName name="明眸活细胞">'商品配置表（勿更改）'!$I$41</definedName>
+    <definedName name="摩奇">'商品配置表（勿更改）'!$H$233</definedName>
+    <definedName name="摩奇_">'商品配置表（勿更改）'!$I$233</definedName>
+    <definedName name="魔方灸系列">'商品配置表（勿更改）'!$I$226</definedName>
+    <definedName name="能量百草泥">'商品配置表（勿更改）'!$I$101</definedName>
+    <definedName name="泥灸">'商品配置表（勿更改）'!$I$81</definedName>
+    <definedName name="牛骨面雕">'商品配置表（勿更改）'!$I$40</definedName>
+    <definedName name="女葆草本健康套">'商品配置表（勿更改）'!$I$85</definedName>
+    <definedName name="女葆草本健康调理黄金套">'商品配置表（勿更改）'!$I$83</definedName>
+    <definedName name="女葆草本调理套">'商品配置表（勿更改）'!$I$82</definedName>
+    <definedName name="女葆草本营养套">'商品配置表（勿更改）'!$I$84</definedName>
+    <definedName name="女性腹部保养套">'商品配置表（勿更改）'!$I$68</definedName>
+    <definedName name="排毒亮肤">'商品配置表（勿更改）'!$I$14</definedName>
+    <definedName name="泡浴_全息养生">'商品配置表（勿更改）'!$I$117</definedName>
+    <definedName name="气血通">'商品配置表（勿更改）'!$H$240:$H$241</definedName>
+    <definedName name="气血通_">'商品配置表（勿更改）'!$I$240</definedName>
+    <definedName name="气血通本草精华套装">'商品配置表（勿更改）'!$I$241</definedName>
+    <definedName name="青春密码_细胞再生">'商品配置表（勿更改）'!$I$48</definedName>
+    <definedName name="轻舞飞扬腋下通">'商品配置表（勿更改）'!$I$98</definedName>
+    <definedName name="情盎然养生套">'商品配置表（勿更改）'!$I$95</definedName>
+    <definedName name="祛痘护理">'商品配置表（勿更改）'!$I$47</definedName>
+    <definedName name="去黑头">'商品配置表（勿更改）'!$I$51</definedName>
+    <definedName name="去黑眼圈">'商品配置表（勿更改）'!$I$43</definedName>
+    <definedName name="去眼皱">'商品配置表（勿更改）'!$I$44</definedName>
+    <definedName name="全能塑雕活氧仪">'商品配置表（勿更改）'!$I$37</definedName>
+    <definedName name="全能王OPT仪器">'商品配置表（勿更改）'!$H$331:$H$336</definedName>
+    <definedName name="全身臻养护理套">'商品配置表（勿更改）'!$I$60</definedName>
+    <definedName name="热疗">'商品配置表（勿更改）'!$I$108</definedName>
+    <definedName name="热疗_草药球">'商品配置表（勿更改）'!$H$248</definedName>
+    <definedName name="热疗_草药球_">'商品配置表（勿更改）'!$I$248</definedName>
+    <definedName name="柔情蜜意腹股沟通">'商品配置表（勿更改）'!$I$99</definedName>
     <definedName name="软膜粉护理">'商品配置表（勿更改）'!$I$9</definedName>
-    <definedName name="三椎按摩护理套">'商品配置表（勿更改）'!$I$42</definedName>
-    <definedName name="身体">'商品配置表（勿更改）'!$H$34:$H$71</definedName>
-    <definedName name="身体刮痧">'商品配置表（勿更改）'!$I$55</definedName>
-    <definedName name="身体疏筋">'商品配置表（勿更改）'!$I$56</definedName>
+    <definedName name="三椎按摩护理套">'商品配置表（勿更改）'!$I$66</definedName>
+    <definedName name="身体">'商品配置表（勿更改）'!$H$58:$H$131</definedName>
+    <definedName name="身体刮痧">'商品配置表（勿更改）'!$I$79</definedName>
+    <definedName name="身体疏筋">'商品配置表（勿更改）'!$I$80</definedName>
     <definedName name="深层毛孔净化护理">'商品配置表（勿更改）'!$I$10</definedName>
     <definedName name="深海活氧生机套组">'商品配置表（勿更改）'!$I$7</definedName>
     <definedName name="深海巨藻舒柔生机套">'商品配置表（勿更改）'!$I$3</definedName>
+    <definedName name="肾部保健">'商品配置表（勿更改）'!$I$124</definedName>
+    <definedName name="十字理疗_产品">'商品配置表（勿更改）'!$I$106</definedName>
     <definedName name="水晶润唇">'商品配置表（勿更改）'!$I$20</definedName>
     <definedName name="私人定制精雕魅影术">'商品配置表（勿更改）'!$I$21</definedName>
     <definedName name="私人定制精雕雾丝眉">'商品配置表（勿更改）'!$I$27</definedName>
     <definedName name="私人定制桃花唇">'商品配置表（勿更改）'!$I$18</definedName>
-    <definedName name="泰妍丰韵套">'商品配置表（勿更改）'!$I$48</definedName>
-    <definedName name="泰妍芙蓉美臀套">'商品配置表（勿更改）'!$I$35</definedName>
-    <definedName name="泰妍活能套">'商品配置表（勿更改）'!$I$50</definedName>
-    <definedName name="泰妍紧致套">'商品配置表（勿更改）'!$I$49</definedName>
-    <definedName name="泰妍魅力套套盒">'商品配置表（勿更改）'!$I$45</definedName>
-    <definedName name="泰妍能量疏活粉">'商品配置表（勿更改）'!$I$39</definedName>
-    <definedName name="泰妍女神套">'商品配置表（勿更改）'!$I$63</definedName>
-    <definedName name="天灸太极固元">'商品配置表（勿更改）'!$I$164</definedName>
-    <definedName name="天灸太极劲健">'商品配置表（勿更改）'!$I$166</definedName>
-    <definedName name="天灸太极丽源">'商品配置表（勿更改）'!$I$167</definedName>
-    <definedName name="天灸太极顺达">'商品配置表（勿更改）'!$I$165</definedName>
-    <definedName name="天灸太极通畅">'商品配置表（勿更改）'!$I$159</definedName>
-    <definedName name="头部">'商品配置表（勿更改）'!$H$77:$H$78</definedName>
-    <definedName name="头部刮痧">'商品配置表（勿更改）'!$I$77</definedName>
-    <definedName name="头部疏筋">'商品配置表（勿更改）'!$I$78</definedName>
-    <definedName name="温煦葵养生套">'商品配置表（勿更改）'!$I$68</definedName>
+    <definedName name="泰妍芙蓉美臀套">'商品配置表（勿更改）'!$I$59</definedName>
+    <definedName name="泰妍活能套">'商品配置表（勿更改）'!$I$74</definedName>
+    <definedName name="泰妍紧致套">'商品配置表（勿更改）'!$I$73</definedName>
+    <definedName name="泰妍魅力套套盒">'商品配置表（勿更改）'!$I$69</definedName>
+    <definedName name="泰妍能量疏活粉">'商品配置表（勿更改）'!$I$63</definedName>
+    <definedName name="泰妍女神套">'商品配置表（勿更改）'!$I$87</definedName>
+    <definedName name="泰妍雅集风韵套">'商品配置表（勿更改）'!$I$72</definedName>
+    <definedName name="天灸太极固元">'商品配置表（勿更改）'!$I$227</definedName>
+    <definedName name="天灸太极劲健">'商品配置表（勿更改）'!$I$229</definedName>
+    <definedName name="天灸太极丽源">'商品配置表（勿更改）'!$I$230</definedName>
+    <definedName name="天灸太极顺达">'商品配置表（勿更改）'!$I$228</definedName>
+    <definedName name="天灸太极通畅">'商品配置表（勿更改）'!$I$222</definedName>
+    <definedName name="天使之翼肩颈通">'商品配置表（勿更改）'!$I$97</definedName>
+    <definedName name="头部">'商品配置表（勿更改）'!$H$140:$H$141</definedName>
+    <definedName name="头部刮痧">'商品配置表（勿更改）'!$I$140</definedName>
+    <definedName name="头部疏筋">'商品配置表（勿更改）'!$I$141</definedName>
+    <definedName name="腿部保健">'商品配置表（勿更改）'!$I$123</definedName>
+    <definedName name="臀疗">'商品配置表（勿更改）'!$I$130</definedName>
+    <definedName name="温灸">'商品配置表（勿更改）'!$I$103</definedName>
+    <definedName name="温煦葵养生套">'商品配置表（勿更改）'!$I$92</definedName>
     <definedName name="五行精雕眉">'商品配置表（勿更改）'!$I$28</definedName>
-    <definedName name="五行能量养生套">'商品配置表（勿更改）'!$I$64</definedName>
+    <definedName name="五行理疗检测">'商品配置表（勿更改）'!$I$131</definedName>
+    <definedName name="五行能量套_十二经络">'商品配置表（勿更改）'!$I$102</definedName>
+    <definedName name="五行能量养生套">'商品配置表（勿更改）'!$I$88</definedName>
     <definedName name="五行水润唇">'商品配置表（勿更改）'!$I$19</definedName>
-    <definedName name="洗唇线">'商品配置表（勿更改）'!$I$270</definedName>
-    <definedName name="洗眉">'商品配置表（勿更改）'!$I$268</definedName>
-    <definedName name="洗眼线">'商品配置表（勿更改）'!$I$269</definedName>
-    <definedName name="纤纤美腿紧致套">'商品配置表（勿更改）'!$I$46</definedName>
-    <definedName name="纤纤玉手">'商品配置表（勿更改）'!$I$54</definedName>
-    <definedName name="纤滢平衡舒体套">'商品配置表（勿更改）'!$I$37</definedName>
-    <definedName name="循环畅舒能量套">'商品配置表（勿更改）'!$I$38</definedName>
-    <definedName name="延年益寿刷">'商品配置表（勿更改）'!$H$192</definedName>
-    <definedName name="延年益寿刷_">'商品配置表（勿更改）'!$I$192</definedName>
-    <definedName name="眼部">'商品配置表（勿更改）'!$H$92</definedName>
-    <definedName name="腰部能量养护套">'商品配置表（勿更改）'!$I$47</definedName>
-    <definedName name="瑶浴">'商品配置表（勿更改）'!$I$62</definedName>
-    <definedName name="药灸柱">'商品配置表（勿更改）'!$I$53</definedName>
+    <definedName name="洗唇线">'商品配置表（勿更改）'!$I$333</definedName>
+    <definedName name="洗眉">'商品配置表（勿更改）'!$I$331</definedName>
+    <definedName name="洗眼线">'商品配置表（勿更改）'!$I$332</definedName>
+    <definedName name="细胞氧疗仪">'商品配置表（勿更改）'!$I$36</definedName>
+    <definedName name="纤纤美腿紧致套">'商品配置表（勿更改）'!$I$70</definedName>
+    <definedName name="纤纤玉手">'商品配置表（勿更改）'!$I$78</definedName>
+    <definedName name="纤滢平衡舒体套">'商品配置表（勿更改）'!$I$61</definedName>
+    <definedName name="消炎">'商品配置表（勿更改）'!$I$49</definedName>
+    <definedName name="胸部保健">'商品配置表（勿更改）'!$I$119</definedName>
+    <definedName name="胸腺淋巴循环净宝">'商品配置表（勿更改）'!$I$100</definedName>
+    <definedName name="修眉修甲">'商品配置表（勿更改）'!$I$46</definedName>
+    <definedName name="穴位排毒_拔罐">'商品配置表（勿更改）'!$I$125</definedName>
+    <definedName name="循环畅舒能量套">'商品配置表（勿更改）'!$I$62</definedName>
+    <definedName name="延年益寿刷">'商品配置表（勿更改）'!$H$255</definedName>
+    <definedName name="延年益寿刷_">'商品配置表（勿更改）'!$I$255</definedName>
+    <definedName name="眼部">'商品配置表（勿更改）'!$H$155:$H$157</definedName>
+    <definedName name="腰部能量养护套">'商品配置表（勿更改）'!$I$71</definedName>
+    <definedName name="瑶浴">'商品配置表（勿更改）'!$I$86</definedName>
+    <definedName name="药灸柱">'商品配置表（勿更改）'!$I$77</definedName>
     <definedName name="一刮就美_焕颜面部护理套">'商品配置表（勿更改）'!$I$4</definedName>
-    <definedName name="一刮就美康韵平衡套">'商品配置表（勿更改）'!$I$34</definedName>
+    <definedName name="一刮就美康韵平衡套">'商品配置表（勿更改）'!$I$58</definedName>
     <definedName name="仪器">'商品配置表（勿更改）'!$D$1:$D$13</definedName>
-    <definedName name="鱼子紧致明眸生机套">'商品配置表（勿更改）'!$I$92</definedName>
-    <definedName name="月卡">'商品配置表（勿更改）'!$H$243</definedName>
-    <definedName name="月卡_面部">'商品配置表（勿更改）'!$I$243</definedName>
-    <definedName name="掌灸系列">'商品配置表（勿更改）'!$I$162</definedName>
+    <definedName name="鱼子紧致明眸生机套">'商品配置表（勿更改）'!$I$155</definedName>
+    <definedName name="月卡">'商品配置表（勿更改）'!$H$306</definedName>
+    <definedName name="月卡_面部">'商品配置表（勿更改）'!$I$306</definedName>
+    <definedName name="掌灸系列">'商品配置表（勿更改）'!$I$225</definedName>
     <definedName name="至尊容颜护理">'商品配置表（勿更改）'!$I$8</definedName>
-    <definedName name="紫河暖养生套">'商品配置表（勿更改）'!$I$70</definedName>
-    <definedName name="宗气通养生套">'商品配置表（勿更改）'!$I$67</definedName>
-    <definedName name="综合卡">'商品配置表（勿更改）'!$F$1:$F$5</definedName>
-    <definedName name="综合卡A卡">'商品配置表（勿更改）'!$I$211</definedName>
-    <definedName name="综合卡B卡">'商品配置表（勿更改）'!$I$219</definedName>
-    <definedName name="综合卡C卡">'商品配置表（勿更改）'!$I$226</definedName>
-    <definedName name="钻石嫩肤_面部">'商品配置表（勿更改）'!$I$257</definedName>
-    <definedName name="钻石嫩肤_身体">'商品配置表（勿更改）'!$I$258</definedName>
-    <definedName name="钻石嫩肤_眼部">'商品配置表（勿更改）'!$I$259</definedName>
-    <definedName name="钻石微雕">'商品配置表（勿更改）'!$I$199</definedName>
-    <definedName name="钻石系列">'商品配置表（勿更改）'!$H$199</definedName>
-    <definedName name="坐灸系列">'商品配置表（勿更改）'!$I$160</definedName>
+    <definedName name="中药泡澡">'商品配置表（勿更改）'!$I$96</definedName>
+    <definedName name="紫河暖养生套">'商品配置表（勿更改）'!$I$94</definedName>
+    <definedName name="自制水疗膜">'商品配置表（勿更改）'!$I$52</definedName>
+    <definedName name="宗气通养生套">'商品配置表（勿更改）'!$I$91</definedName>
+    <definedName name="综合卡">'商品配置表（勿更改）'!$F$1:$F$2</definedName>
+    <definedName name="综合卡A卡">'商品配置表（勿更改）'!$I$274</definedName>
+    <definedName name="综合卡B卡">'商品配置表（勿更改）'!$I$282</definedName>
+    <definedName name="综合卡C卡">'商品配置表（勿更改）'!$I$289</definedName>
+    <definedName name="钻石嫩肤_面部">'商品配置表（勿更改）'!$I$320</definedName>
+    <definedName name="钻石嫩肤_身体">'商品配置表（勿更改）'!$I$321</definedName>
+    <definedName name="钻石嫩肤_眼部">'商品配置表（勿更改）'!$I$322</definedName>
+    <definedName name="钻石微雕">'商品配置表（勿更改）'!$I$262</definedName>
+    <definedName name="钻石系列">'商品配置表（勿更改）'!$H$262</definedName>
+    <definedName name="坐灸系列">'商品配置表（勿更改）'!$I$223</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="284">
   <si>
     <t>订单性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,9 +589,6 @@
     <t>冰雕</t>
   </si>
   <si>
-    <t>铅汞排毒</t>
-  </si>
-  <si>
     <t>一刮就美康韵平衡套</t>
   </si>
   <si>
@@ -476,9 +607,6 @@
     <t>纤纤美腿紧致套</t>
   </si>
   <si>
-    <t>泰妍丰韵套</t>
-  </si>
-  <si>
     <t>泰妍紧致套</t>
   </si>
   <si>
@@ -638,10 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女葆草本调理粉袋_胸贴膜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E光脱毛_比基尼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -814,18 +938,6 @@
     <t>缦之羽6度亮瞳魅影术</t>
   </si>
   <si>
-    <t>_3年卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_5年卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_10年卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丝雾眉</t>
   </si>
   <si>
@@ -863,10 +975,6 @@
     <t>5次</t>
   </si>
   <si>
-    <t>黑钻美肤娃娃_面部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黑钻美肤娃娃_颈部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -973,10 +1081,6 @@
   </si>
   <si>
     <t>5年卡_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年卡_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1223,8 +1327,245 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>体验价</t>
+  </si>
+  <si>
+    <t>排毒亮肤</t>
+  </si>
+  <si>
+    <t>玫瑰谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面部基础护理年卡冰清48次</t>
+  </si>
+  <si>
+    <t>面部基础护理半年卡冰清_深层24次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面部基础护理季卡12次冰清_深层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰疗面部</t>
+  </si>
+  <si>
+    <t>皇眼</t>
+  </si>
+  <si>
+    <t>奥玛精品脸</t>
+  </si>
+  <si>
+    <t>细胞氧疗仪</t>
+  </si>
+  <si>
+    <t>全能塑雕活氧仪</t>
+  </si>
+  <si>
+    <t>冰点嫩肤</t>
+  </si>
+  <si>
+    <t>冰雕塑形</t>
+  </si>
+  <si>
+    <t>牛骨面雕</t>
+  </si>
+  <si>
+    <t>明眸活细胞</t>
+  </si>
+  <si>
+    <t>活细胞抗衰老</t>
+  </si>
+  <si>
+    <t>去黑眼圈</t>
+  </si>
+  <si>
+    <t>去眼皱</t>
+  </si>
+  <si>
+    <t>海藻膜</t>
+  </si>
+  <si>
+    <t>修眉修甲</t>
+  </si>
+  <si>
+    <t>祛痘护理</t>
+  </si>
+  <si>
+    <t>青春密码_细胞再生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消炎</t>
+  </si>
+  <si>
+    <t>冷喷镇痛</t>
+  </si>
+  <si>
+    <t>去黑头</t>
+  </si>
+  <si>
+    <t>自制水疗膜</t>
+  </si>
+  <si>
+    <t>冷热膜</t>
+  </si>
+  <si>
+    <t>奥玛精致护理_年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥玛精致护理_半年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰妍雅集风韵套</t>
+  </si>
+  <si>
+    <t>泥灸</t>
+  </si>
+  <si>
+    <t>中药泡澡</t>
+  </si>
+  <si>
+    <t>天使之翼肩颈通</t>
+  </si>
+  <si>
+    <t>轻舞飞扬腋下通</t>
+  </si>
+  <si>
+    <t>柔情蜜意腹股沟通</t>
+  </si>
+  <si>
+    <t>胸腺淋巴循环净宝</t>
+  </si>
+  <si>
+    <t>能量百草泥</t>
+  </si>
+  <si>
+    <t>温灸</t>
+  </si>
+  <si>
+    <t>对对经络</t>
+  </si>
+  <si>
+    <t>电罐吸胸仪</t>
+  </si>
+  <si>
+    <t>五行能量套_十二经络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字理疗_产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲</t>
+  </si>
+  <si>
+    <t>热疗</t>
+  </si>
+  <si>
+    <t>皇家古法_子午流注健康_阙通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家古法_子午流注健康_路通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家古法_带脉塑形_产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家古法_舒肝养血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家古法_乳腺疾患</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家古法_清肺养颜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家古法_原生泰雅_臀疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇家古法_头疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡浴_全息养生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋巴排毒</t>
+  </si>
+  <si>
+    <t>胸部保健</t>
+  </si>
+  <si>
+    <t>背部保健</t>
+  </si>
+  <si>
+    <t>健胃整肠</t>
+  </si>
+  <si>
+    <t>卵巢保养</t>
+  </si>
+  <si>
+    <t>腿部保健</t>
+  </si>
+  <si>
+    <t>肾部保健</t>
+  </si>
+  <si>
+    <t>穴位排毒_拔罐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶阳仪</t>
+  </si>
+  <si>
+    <t>罐灸</t>
+  </si>
+  <si>
+    <t>艾灸一生</t>
+  </si>
+  <si>
+    <t>蜡疗</t>
+  </si>
+  <si>
+    <t>臀疗</t>
+  </si>
+  <si>
+    <t>五行理疗检测</t>
+  </si>
+  <si>
+    <t>基础眼护</t>
+  </si>
+  <si>
+    <t>冰疗眼部</t>
+  </si>
+  <si>
+    <t>高级黑钻美肤娃娃_面部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级黑钻美肤娃娃_面部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10次_顶级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">当前版本是 第二版2.0.5                                                                                                                                        </t>
+      <t xml:space="preserve">当前版本是 第二版2.0.6                                                                                                                                        </t>
     </r>
     <r>
       <rPr>
@@ -1755,7 +2096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1813,6 +2154,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2130,7 +2474,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2149,20 +2493,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="327.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -2184,22 +2528,22 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2250,17 +2594,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:M336"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -2287,16 +2635,16 @@
         <v>527</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
@@ -2316,16 +2664,16 @@
         <v>529</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
@@ -2335,9 +2683,6 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" t="s">
         <v>30</v>
       </c>
@@ -2345,16 +2690,16 @@
         <v>530</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
@@ -2364,26 +2709,20 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I4">
         <v>531</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" t="s">
         <v>31</v>
       </c>
@@ -2391,21 +2730,21 @@
         <v>532</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
@@ -2414,16 +2753,16 @@
         <v>534</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -2437,13 +2776,13 @@
         <v>536</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -2457,13 +2796,13 @@
         <v>552</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -2477,16 +2816,16 @@
         <v>554</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -2500,13 +2839,13 @@
         <v>555</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -2520,21 +2859,21 @@
         <v>563</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
         <v>38</v>
@@ -2543,21 +2882,21 @@
         <v>569</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
         <v>39</v>
@@ -2566,1547 +2905,2708 @@
         <v>623</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H14" t="s">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="I14">
         <v>625</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I15">
         <v>649</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I16">
         <v>650</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I17">
         <v>651</v>
       </c>
       <c r="J17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I18">
         <v>652</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I19">
         <v>653</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I20">
         <v>654</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I21">
         <v>655</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I22">
         <v>656</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I23">
         <v>657</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I24">
         <v>658</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I25">
         <v>659</v>
       </c>
       <c r="J25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I26">
         <v>660</v>
       </c>
       <c r="J26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I27">
         <v>661</v>
       </c>
       <c r="J27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I28">
         <v>662</v>
       </c>
       <c r="J28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.15">
       <c r="H29" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="I29">
-        <v>663</v>
-      </c>
-      <c r="J29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H30" t="s">
-        <v>151</v>
+        <v>681</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H30" s="20" t="s">
+        <v>214</v>
       </c>
       <c r="I30">
-        <v>664</v>
-      </c>
-      <c r="J30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H31" t="s">
-        <v>152</v>
+        <v>682</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H31" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="I31">
-        <v>665</v>
-      </c>
-      <c r="J31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H32" t="s">
-        <v>149</v>
+        <v>683</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="8:12" x14ac:dyDescent="0.15">
+      <c r="H32" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="I32">
-        <v>666</v>
-      </c>
-      <c r="J32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="34" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>41</v>
+        <v>684</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I33">
+        <v>685</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H34" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="I34">
-        <v>533</v>
+        <v>689</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H35" t="s">
-        <v>42</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H35" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="I35">
-        <v>537</v>
+        <v>690</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>127</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H36" t="s">
-        <v>63</v>
+        <v>125</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H36" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="I36">
-        <v>538</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H37" t="s">
-        <v>64</v>
+        <v>702</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H37" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="I37">
-        <v>539</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H38" t="s">
-        <v>43</v>
+        <v>703</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H38" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="I38">
-        <v>540</v>
+        <v>704</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H39" t="s">
-        <v>65</v>
+        <v>129</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H39" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="I39">
-        <v>541</v>
-      </c>
-      <c r="J39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H40" t="s">
-        <v>159</v>
+        <v>705</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H40" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="I40">
-        <v>542</v>
-      </c>
-      <c r="J40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H41" t="s">
-        <v>44</v>
+        <v>706</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H41" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="I41">
-        <v>543</v>
+        <v>707</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H42" t="s">
-        <v>66</v>
+        <v>130</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H42" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I42">
-        <v>544</v>
-      </c>
-      <c r="J42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H43" t="s">
-        <v>99</v>
+        <v>708</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H43" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="I43">
-        <v>545</v>
+        <v>709</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H44" t="s">
-        <v>45</v>
+        <v>130</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H44" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="I44">
-        <v>546</v>
+        <v>710</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H45" t="s">
-        <v>67</v>
+        <v>130</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H45" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="I45">
-        <v>547</v>
-      </c>
-      <c r="J45" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H46" t="s">
-        <v>46</v>
+        <v>711</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H46" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="I46">
-        <v>548</v>
+        <v>712</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H47" t="s">
-        <v>68</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H47" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="I47">
-        <v>549</v>
-      </c>
-      <c r="J47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H48" t="s">
-        <v>47</v>
+        <v>713</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H48" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="I48">
-        <v>550</v>
+        <v>714</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="49" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H49" t="s">
-        <v>48</v>
+      <c r="L48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H49" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="I49">
-        <v>551</v>
+        <v>715</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H50" t="s">
-        <v>49</v>
+        <v>130</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H50" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="I50">
-        <v>553</v>
+        <v>716</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H51" t="s">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H51" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="I51">
-        <v>558</v>
+        <v>717</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H52" t="s">
-        <v>51</v>
+      <c r="M51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H52" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="I52">
-        <v>560</v>
+        <v>718</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H53" t="s">
+      <c r="M52" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I53">
+        <v>719</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54">
+        <v>1103</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H55" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I55">
+        <v>1106</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56">
+        <v>666</v>
+      </c>
+      <c r="J56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I58">
+        <v>533</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H59" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59">
+        <v>537</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H60" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60">
+        <v>538</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61">
+        <v>539</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62">
+        <v>540</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63">
+        <v>541</v>
+      </c>
+      <c r="J63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H64" t="s">
+        <v>153</v>
+      </c>
+      <c r="I64">
+        <v>542</v>
+      </c>
+      <c r="J64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H65" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65">
+        <v>543</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H66" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66">
+        <v>544</v>
+      </c>
+      <c r="J66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H67" t="s">
+        <v>97</v>
+      </c>
+      <c r="I67">
+        <v>545</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H68" t="s">
+        <v>44</v>
+      </c>
+      <c r="I68">
+        <v>546</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H69" t="s">
+        <v>65</v>
+      </c>
+      <c r="I69">
+        <v>547</v>
+      </c>
+      <c r="J69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70">
+        <v>548</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71">
+        <v>549</v>
+      </c>
+      <c r="J71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I72">
+        <v>550</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73">
+        <v>551</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74">
+        <v>553</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I75">
+        <v>558</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H76" t="s">
+        <v>49</v>
+      </c>
+      <c r="I76">
+        <v>560</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77">
+        <v>561</v>
+      </c>
+      <c r="J77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H78" t="s">
+        <v>51</v>
+      </c>
+      <c r="I78">
+        <v>562</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H79" t="s">
         <v>52</v>
       </c>
-      <c r="I53">
-        <v>561</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="I79">
+        <v>566</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H80" t="s">
+        <v>53</v>
+      </c>
+      <c r="I80">
+        <v>568</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I81">
+        <v>686</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H82" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82">
+        <v>573</v>
+      </c>
+      <c r="J82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H83" t="s">
+        <v>54</v>
+      </c>
+      <c r="I83">
+        <v>574</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H84" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84">
+        <v>579</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85">
+        <v>580</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H86" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86">
+        <v>620</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H87" t="s">
+        <v>68</v>
+      </c>
+      <c r="I87">
+        <v>621</v>
+      </c>
+      <c r="J87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H88" t="s">
+        <v>79</v>
+      </c>
+      <c r="I88">
+        <v>646</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H54" t="s">
-        <v>53</v>
-      </c>
-      <c r="I54">
-        <v>562</v>
-      </c>
-      <c r="J54" s="1" t="s">
+    <row r="89" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H89" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89">
+        <v>645</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L54" s="1" t="s">
+    </row>
+    <row r="90" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H90" t="s">
+        <v>81</v>
+      </c>
+      <c r="I90">
+        <v>644</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91">
+        <v>643</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H92" t="s">
+        <v>83</v>
+      </c>
+      <c r="I92">
+        <v>642</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H93" t="s">
+        <v>84</v>
+      </c>
+      <c r="I93">
+        <v>641</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H94" t="s">
+        <v>85</v>
+      </c>
+      <c r="I94">
+        <v>639</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H95" t="s">
+        <v>86</v>
+      </c>
+      <c r="I95">
+        <v>638</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H96" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I96" s="1">
+        <v>692</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H55" t="s">
-        <v>54</v>
-      </c>
-      <c r="I55">
-        <v>566</v>
-      </c>
-      <c r="J55" s="1" t="s">
+      <c r="M96" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H97" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="I97" s="1">
+        <v>693</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H98" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I98" s="1">
+        <v>694</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H99" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I99" s="1">
+        <v>695</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H100" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I100" s="1">
+        <v>696</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H101" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I101" s="1">
+        <v>697</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I102" s="1">
+        <v>698</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H103" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I103" s="1">
+        <v>699</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H104" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I104" s="1">
+        <v>700</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H105" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I105" s="1">
+        <v>720</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H106" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I106" s="1">
+        <v>721</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H107" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I107" s="1">
+        <v>722</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H108" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I108" s="1">
+        <v>723</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H109" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I109" s="1">
+        <v>724</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H110" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="I110" s="1">
+        <v>725</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H111" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I111" s="1">
+        <v>726</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I112" s="1">
+        <v>727</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H113" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I113" s="1">
+        <v>728</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H114" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I114" s="1">
+        <v>729</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H115" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I115" s="1">
+        <v>730</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H116" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I116" s="1">
+        <v>731</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I117" s="1">
+        <v>732</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I118" s="1">
+        <v>733</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H119" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I119" s="1">
+        <v>734</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H120" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I120" s="1">
+        <v>735</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H121" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I121" s="1">
+        <v>736</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H122" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I122" s="1">
+        <v>737</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H123" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I123" s="1">
+        <v>738</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H124" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I124" s="1">
+        <v>739</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I125" s="1">
+        <v>740</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I126" s="1">
+        <v>741</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H127" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I127" s="1">
+        <v>742</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="8:13" x14ac:dyDescent="0.15">
+      <c r="H128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I128" s="1">
+        <v>743</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H129" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I129" s="1">
+        <v>744</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H130" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I130" s="1">
+        <v>745</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H131" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I131" s="1">
+        <v>748</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+    </row>
+    <row r="140" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" t="s">
+        <v>58</v>
+      </c>
+      <c r="I140">
+        <v>565</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H141" t="s">
+        <v>59</v>
+      </c>
+      <c r="I141">
+        <v>570</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G155" t="s">
+        <v>9</v>
+      </c>
+      <c r="H155" t="s">
+        <v>60</v>
+      </c>
+      <c r="I155">
+        <v>535</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M155" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="56" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H56" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56">
-        <v>568</v>
-      </c>
-      <c r="J56" s="1" t="s">
+    </row>
+    <row r="156" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H156" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I156" s="1">
+        <v>691</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="157" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H157" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I157" s="1">
+        <v>746</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G163" t="s">
+        <v>19</v>
+      </c>
+      <c r="H163" t="s">
+        <v>116</v>
+      </c>
+      <c r="I163">
+        <v>615</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="174" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G174" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" t="s">
+        <v>98</v>
+      </c>
+      <c r="I174">
+        <v>528</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="175" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="H175" t="s">
+        <v>69</v>
+      </c>
+      <c r="I175">
+        <v>564</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="176" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="H176" t="s">
+        <v>99</v>
+      </c>
+      <c r="I176">
+        <v>602</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="177" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H177" t="s">
+        <v>100</v>
+      </c>
+      <c r="I177">
+        <v>603</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="178" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H178" t="s">
+        <v>101</v>
+      </c>
+      <c r="I178">
+        <v>604</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="179" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H179" t="s">
+        <v>102</v>
+      </c>
+      <c r="I179">
+        <v>605</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H180" t="s">
+        <v>103</v>
+      </c>
+      <c r="I180">
+        <v>606</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="181" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H181" t="s">
+        <v>104</v>
+      </c>
+      <c r="I181">
+        <v>607</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H182" t="s">
+        <v>105</v>
+      </c>
+      <c r="I182">
+        <v>608</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H183" t="s">
+        <v>106</v>
+      </c>
+      <c r="I183">
+        <v>609</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="184" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H184" t="s">
+        <v>107</v>
+      </c>
+      <c r="I184">
+        <v>610</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="8:11" x14ac:dyDescent="0.15">
+      <c r="H185" t="s">
+        <v>108</v>
+      </c>
+      <c r="I185">
+        <v>613</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="194" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G194" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" t="s">
+        <v>109</v>
+      </c>
+      <c r="I194">
+        <v>616</v>
+      </c>
+      <c r="J194" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="195" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H195" t="s">
+        <v>110</v>
+      </c>
+      <c r="I195">
+        <v>617</v>
+      </c>
+      <c r="J195" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G205" t="s">
+        <v>17</v>
+      </c>
+      <c r="H205" t="s">
+        <v>280</v>
+      </c>
+      <c r="I205">
+        <v>598</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+    </row>
+    <row r="206" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H206" t="s">
+        <v>159</v>
+      </c>
+      <c r="I206">
+        <v>599</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="207" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H207" t="s">
+        <v>281</v>
+      </c>
+      <c r="I207">
+        <v>754</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="214" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G214" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s">
+        <v>117</v>
+      </c>
+      <c r="I214">
+        <v>578</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="222" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G222" t="s">
+        <v>12</v>
+      </c>
+      <c r="H222" t="s">
+        <v>165</v>
+      </c>
+      <c r="I222">
+        <v>556</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="223" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H223" t="s">
+        <v>70</v>
+      </c>
+      <c r="I223">
+        <v>557</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H224" t="s">
+        <v>71</v>
+      </c>
+      <c r="I224">
+        <v>559</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="225" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H225" t="s">
+        <v>72</v>
+      </c>
+      <c r="I225">
+        <v>618</v>
+      </c>
+      <c r="J225" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="226" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H226" t="s">
+        <v>73</v>
+      </c>
+      <c r="I226">
+        <v>619</v>
+      </c>
+      <c r="J226" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="227" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H227" t="s">
+        <v>170</v>
+      </c>
+      <c r="I227">
+        <v>671</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H228" t="s">
+        <v>167</v>
+      </c>
+      <c r="I228">
+        <v>670</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="229" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H229" t="s">
+        <v>168</v>
+      </c>
+      <c r="I229">
+        <v>669</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="230" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H230" t="s">
+        <v>169</v>
+      </c>
+      <c r="I230">
+        <v>668</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="233" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G233" t="s">
+        <v>18</v>
+      </c>
+      <c r="H233" t="s">
+        <v>118</v>
+      </c>
+      <c r="I233">
+        <v>614</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="240" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G240" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" t="s">
+        <v>119</v>
+      </c>
+      <c r="I240">
+        <v>572</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>577</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="248" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G248" t="s">
+        <v>96</v>
+      </c>
+      <c r="H248" t="s">
+        <v>120</v>
+      </c>
+      <c r="I248">
+        <v>576</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="255" spans="7:13" x14ac:dyDescent="0.15">
+      <c r="G255" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" t="s">
+        <v>121</v>
+      </c>
+      <c r="I255">
+        <v>575</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="262" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G262" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" t="s">
+        <v>75</v>
+      </c>
+      <c r="I262">
+        <v>567</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="274" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G274" t="s">
+        <v>25</v>
+      </c>
+      <c r="H274" t="s">
+        <v>76</v>
+      </c>
+      <c r="I274">
+        <v>624</v>
+      </c>
+      <c r="J274" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="282" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G282" t="s">
+        <v>26</v>
+      </c>
+      <c r="H282" t="s">
+        <v>77</v>
+      </c>
+      <c r="I282">
+        <v>626</v>
+      </c>
+      <c r="J282" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="289" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G289" t="s">
+        <v>27</v>
+      </c>
+      <c r="H289" t="s">
+        <v>78</v>
+      </c>
+      <c r="I289">
+        <v>627</v>
+      </c>
+      <c r="J289" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="298" spans="7:10" x14ac:dyDescent="0.15">
+      <c r="G298" t="s">
+        <v>24</v>
+      </c>
+      <c r="H298" t="s">
+        <v>111</v>
+      </c>
+      <c r="I298">
+        <v>612</v>
+      </c>
+      <c r="J298" t="s">
         <v>127</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H57" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57">
-        <v>571</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-      <c r="I58">
-        <v>573</v>
-      </c>
-      <c r="J58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59">
-        <v>574</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H60" t="s">
-        <v>57</v>
-      </c>
-      <c r="I60">
-        <v>579</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H61" t="s">
-        <v>58</v>
-      </c>
-      <c r="I61">
-        <v>580</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H62" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62">
-        <v>620</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63">
-        <v>621</v>
-      </c>
-      <c r="J63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="8:13" x14ac:dyDescent="0.15">
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64">
-        <v>646</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65">
-        <v>645</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-      <c r="I66">
-        <v>644</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67">
-        <v>643</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="68" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68">
-        <v>642</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69">
-        <v>641</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H70" t="s">
+    </row>
+    <row r="306" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G306" t="s">
+        <v>23</v>
+      </c>
+      <c r="H306" t="s">
+        <v>112</v>
+      </c>
+      <c r="I306">
+        <v>611</v>
+      </c>
+      <c r="J306" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="320" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G320" t="s">
         <v>87</v>
       </c>
-      <c r="I70">
-        <v>639</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H71" t="s">
+      <c r="H320" t="s">
+        <v>113</v>
+      </c>
+      <c r="I320">
+        <v>636</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="321" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H321" t="s">
+        <v>114</v>
+      </c>
+      <c r="I321">
+        <v>635</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K321" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="322" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H322" t="s">
+        <v>115</v>
+      </c>
+      <c r="I322">
+        <v>640</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K322" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="331" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="G331" t="s">
         <v>88</v>
       </c>
-      <c r="I71">
-        <v>638</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77">
-        <v>565</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I78">
-        <v>570</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="92" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G92" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" t="s">
-        <v>62</v>
-      </c>
-      <c r="I92">
-        <v>535</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G100" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" t="s">
-        <v>119</v>
-      </c>
-      <c r="I100">
-        <v>615</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="s">
-        <v>101</v>
-      </c>
-      <c r="I111">
-        <v>528</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="H112" t="s">
-        <v>71</v>
-      </c>
-      <c r="I112">
-        <v>564</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H113" t="s">
-        <v>102</v>
-      </c>
-      <c r="I113">
-        <v>602</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H114" t="s">
-        <v>103</v>
-      </c>
-      <c r="I114">
-        <v>603</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H115" t="s">
-        <v>104</v>
-      </c>
-      <c r="I115">
-        <v>604</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H116" t="s">
-        <v>105</v>
-      </c>
-      <c r="I116">
-        <v>605</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H117" t="s">
-        <v>106</v>
-      </c>
-      <c r="I117">
-        <v>606</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H118" t="s">
-        <v>107</v>
-      </c>
-      <c r="I118">
-        <v>607</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H119" t="s">
-        <v>108</v>
-      </c>
-      <c r="I119">
-        <v>608</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H120" t="s">
-        <v>109</v>
-      </c>
-      <c r="I120">
-        <v>609</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H121" t="s">
-        <v>110</v>
-      </c>
-      <c r="I121">
-        <v>610</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K121" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="8:11" x14ac:dyDescent="0.15">
-      <c r="H122" t="s">
-        <v>111</v>
-      </c>
-      <c r="I122">
-        <v>613</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="131" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G131" t="s">
-        <v>20</v>
-      </c>
-      <c r="H131" t="s">
-        <v>112</v>
-      </c>
-      <c r="I131">
-        <v>616</v>
-      </c>
-      <c r="J131" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="132" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H132" t="s">
-        <v>113</v>
-      </c>
-      <c r="I132">
-        <v>617</v>
-      </c>
-      <c r="J132" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="142" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G142" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" t="s">
-        <v>165</v>
-      </c>
-      <c r="I142">
-        <v>598</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="143" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H143" t="s">
-        <v>166</v>
-      </c>
-      <c r="I143">
-        <v>599</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L143" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G151" t="s">
-        <v>16</v>
-      </c>
-      <c r="H151" t="s">
-        <v>120</v>
-      </c>
-      <c r="I151">
-        <v>578</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L151" s="1" t="s">
+      <c r="H331" t="s">
+        <v>89</v>
+      </c>
+      <c r="I331">
+        <v>634</v>
+      </c>
+      <c r="J331" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="332" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H332" t="s">
+        <v>90</v>
+      </c>
+      <c r="I332">
+        <v>633</v>
+      </c>
+      <c r="J332" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="159" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
-      <c r="H159" t="s">
+      <c r="K332" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="I159">
-        <v>556</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K159" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="160" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H160" t="s">
-        <v>72</v>
-      </c>
-      <c r="I160">
-        <v>557</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="161" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H161" t="s">
-        <v>73</v>
-      </c>
-      <c r="I161">
-        <v>559</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="162" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H162" t="s">
-        <v>74</v>
-      </c>
-      <c r="I162">
-        <v>618</v>
-      </c>
-      <c r="J162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H163" t="s">
-        <v>75</v>
-      </c>
-      <c r="I163">
-        <v>619</v>
-      </c>
-      <c r="J163" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="164" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H164" t="s">
-        <v>177</v>
-      </c>
-      <c r="I164">
-        <v>671</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K164" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="165" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H165" t="s">
-        <v>174</v>
-      </c>
-      <c r="I165">
-        <v>670</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="166" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H166" t="s">
-        <v>175</v>
-      </c>
-      <c r="I166">
-        <v>669</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="167" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H167" t="s">
-        <v>176</v>
-      </c>
-      <c r="I167">
-        <v>668</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K167" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="170" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G170" t="s">
-        <v>18</v>
-      </c>
-      <c r="H170" t="s">
-        <v>121</v>
-      </c>
-      <c r="I170">
-        <v>614</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L170" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="177" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G177" t="s">
-        <v>14</v>
-      </c>
-      <c r="H177" t="s">
-        <v>122</v>
-      </c>
-      <c r="I177">
-        <v>572</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K177" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L177" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M177" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="178" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="H178" t="s">
-        <v>76</v>
-      </c>
-      <c r="I178">
-        <v>577</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K178" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="185" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G185" t="s">
-        <v>98</v>
-      </c>
-      <c r="H185" t="s">
-        <v>123</v>
-      </c>
-      <c r="I185">
-        <v>576</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="192" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G192" t="s">
-        <v>15</v>
-      </c>
-      <c r="H192" t="s">
-        <v>124</v>
-      </c>
-      <c r="I192">
-        <v>575</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L192" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M192" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="199" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G199" t="s">
-        <v>13</v>
-      </c>
-      <c r="H199" t="s">
-        <v>77</v>
-      </c>
-      <c r="I199">
-        <v>567</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K199" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="211" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G211" t="s">
-        <v>25</v>
-      </c>
-      <c r="H211" t="s">
-        <v>78</v>
-      </c>
-      <c r="I211">
-        <v>624</v>
-      </c>
-      <c r="J211" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="219" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G219" t="s">
-        <v>26</v>
-      </c>
-      <c r="H219" t="s">
-        <v>79</v>
-      </c>
-      <c r="I219">
-        <v>626</v>
-      </c>
-      <c r="J219" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="226" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G226" t="s">
-        <v>27</v>
-      </c>
-      <c r="H226" t="s">
-        <v>80</v>
-      </c>
-      <c r="I226">
-        <v>627</v>
-      </c>
-      <c r="J226" t="s">
+    </row>
+    <row r="333" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H333" t="s">
+        <v>91</v>
+      </c>
+      <c r="I333">
+        <v>632</v>
+      </c>
+      <c r="J333" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="334" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H334" t="s">
+        <v>92</v>
+      </c>
+      <c r="I334">
+        <v>631</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="335" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H335" t="s">
+        <v>93</v>
+      </c>
+      <c r="I335">
+        <v>630</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="336" spans="7:12" x14ac:dyDescent="0.15">
+      <c r="H336" t="s">
+        <v>94</v>
+      </c>
+      <c r="I336">
+        <v>629</v>
+      </c>
+      <c r="J336" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="235" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G235" t="s">
-        <v>24</v>
-      </c>
-      <c r="H235" t="s">
-        <v>114</v>
-      </c>
-      <c r="I235">
-        <v>612</v>
-      </c>
-      <c r="J235" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="243" spans="7:10" x14ac:dyDescent="0.15">
-      <c r="G243" t="s">
-        <v>23</v>
-      </c>
-      <c r="H243" t="s">
-        <v>115</v>
-      </c>
-      <c r="I243">
-        <v>611</v>
-      </c>
-      <c r="J243" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="257" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G257" t="s">
-        <v>89</v>
-      </c>
-      <c r="H257" t="s">
-        <v>116</v>
-      </c>
-      <c r="I257">
-        <v>636</v>
-      </c>
-      <c r="J257" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="258" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H258" t="s">
-        <v>117</v>
-      </c>
-      <c r="I258">
-        <v>635</v>
-      </c>
-      <c r="J258" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="259" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H259" t="s">
-        <v>118</v>
-      </c>
-      <c r="I259">
-        <v>640</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="268" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="G268" t="s">
-        <v>90</v>
-      </c>
-      <c r="H268" t="s">
-        <v>91</v>
-      </c>
-      <c r="I268">
-        <v>634</v>
-      </c>
-      <c r="J268" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="269" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H269" t="s">
-        <v>92</v>
-      </c>
-      <c r="I269">
-        <v>633</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K269" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="270" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H270" t="s">
-        <v>93</v>
-      </c>
-      <c r="I270">
-        <v>632</v>
-      </c>
-      <c r="J270" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="271" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H271" t="s">
-        <v>94</v>
-      </c>
-      <c r="I271">
-        <v>631</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K271" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L271" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="272" spans="7:12" x14ac:dyDescent="0.15">
-      <c r="H272" t="s">
-        <v>95</v>
-      </c>
-      <c r="I272">
-        <v>630</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K272" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="273" spans="8:10" x14ac:dyDescent="0.15">
-      <c r="H273" t="s">
-        <v>96</v>
-      </c>
-      <c r="I273">
-        <v>629</v>
-      </c>
-      <c r="J273" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4119,10 +5619,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4133,15 +5633,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1">
         <v>1077</v>
@@ -4149,7 +5649,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>640</v>
@@ -4157,7 +5657,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1">
         <v>644</v>
@@ -4165,7 +5665,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1">
         <v>706</v>
@@ -4173,7 +5673,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1">
         <v>1087</v>
@@ -4181,7 +5681,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B7" s="1">
         <v>721</v>
@@ -4189,7 +5689,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1">
         <v>641</v>
@@ -4197,7 +5697,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1">
         <v>1082</v>
@@ -4205,7 +5705,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1">
         <v>643</v>
@@ -4213,7 +5713,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1">
         <v>642</v>
@@ -4221,7 +5721,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1">
         <v>645</v>
@@ -4229,7 +5729,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1">
         <v>1085</v>
@@ -4237,7 +5737,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B14" s="1">
         <v>722</v>
@@ -4245,7 +5745,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B15" s="1">
         <v>1088</v>
@@ -4253,7 +5753,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B16" s="1">
         <v>1089</v>
@@ -4261,7 +5761,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B17" s="1">
         <v>718</v>
@@ -4269,39 +5769,39 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1">
         <v>1130</v>
@@ -4309,7 +5809,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1">
         <v>1116</v>
@@ -4317,7 +5817,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B24" s="1">
         <v>1129</v>
@@ -4325,7 +5825,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1">
         <v>1127</v>
@@ -4333,7 +5833,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B26" s="1">
         <v>1128</v>
@@ -4341,7 +5841,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B27" s="1">
         <v>1131</v>
@@ -4349,7 +5849,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B28" s="1">
         <v>1133</v>
@@ -4357,7 +5857,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B29" s="1">
         <v>1134</v>
@@ -4365,7 +5865,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B30" s="1">
         <v>1132</v>
@@ -4373,7 +5873,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B31" s="1">
         <v>1135</v>
@@ -4381,7 +5881,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B32" s="1">
         <v>1136</v>
@@ -4389,7 +5889,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B33" s="1">
         <v>1142</v>
@@ -4397,7 +5897,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1">
         <v>725</v>
@@ -4405,7 +5905,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B35" s="1">
         <v>726</v>
@@ -4413,7 +5913,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1">
         <v>727</v>
@@ -4421,7 +5921,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B37" s="1">
         <v>1139</v>
@@ -4429,7 +5929,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B38" s="1">
         <v>1140</v>
@@ -4437,7 +5937,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B39" s="1">
         <v>1143</v>
@@ -4445,7 +5945,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B40" s="1">
         <v>1144</v>
@@ -4453,10 +5953,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B41" s="1">
         <v>1145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
